--- a/categories/categories.xlsx
+++ b/categories/categories.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC727-4D6C-44BD-8F64-598A42F4093A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6A29FD-AE33-408F-B32D-ABED477D44CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protein" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Beliebteste (c1001)</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Aminosäuren Getränke(c3048)</t>
+  </si>
+  <si>
+    <t>Smoothies(c5006)</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AE7C2D-747E-4DB2-8BD5-F146FAE79402}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1085,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADA8D85-9259-471B-8B31-B1408D8AD07E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,10 +1101,10 @@
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1116,6 +1119,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
